--- a/biology/Zoologie/Cinclode_fuligineux/Cinclode_fuligineux.xlsx
+++ b/biology/Zoologie/Cinclode_fuligineux/Cinclode_fuligineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinclodes antarcticus
 Le Cinclode fuligineux (Cinclodes antarcticus) est une espèce de passereau de la famille des Furnariidae. Il est originaire de l'extrémité sud de l'Amérique du Sud, y compris les îles Falkland. Il est souvent peu farouche et s'approche facilement des humains.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure de 18 à 23 cm de long. Les sexes sont semblables et leur plumage est presque entièrement brun foncé. La gorge est légèrement plus pâle avec quelques taches de couleur chamois, il y a une bande légèrement plus pâle sur l’œil et une légère barre brun rougeâtre sur l'aile. Le bec est assez long, robuste et légèrement incurvé avec une tache jaune pâle à la base (qui manque chez les oiseaux des Falklands).
 Son chant et ses appels sont forts et aigus. Le chant est lancé d'un perchoir ou en vol.
